--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2182.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2182.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.089140434388544</v>
+        <v>1.303865551948547</v>
       </c>
       <c r="B1">
-        <v>1.857215499017526</v>
+        <v>-1</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.082549064669396</v>
+        <v>1.360026001930237</v>
       </c>
       <c r="E1">
-        <v>0.9384517962313618</v>
+        <v>0.8257433772087097</v>
       </c>
     </row>
   </sheetData>
